--- a/data/trans_dic/P15B_3_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1934357618753665</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.02762969335398835</v>
+        <v>0.02762969335398836</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1482682362632294</v>
@@ -697,7 +697,7 @@
         <v>0.1405556023456122</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0716813676871547</v>
+        <v>0.07168136768715469</v>
       </c>
     </row>
     <row r="5">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07495615388928552</v>
+        <v>0.07477874906099259</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02785397646928988</v>
+        <v>0.03011616395376586</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04424438725629876</v>
+        <v>0.05161732493961551</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04515458928691551</v>
+        <v>0.04543305172201372</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05943305003008035</v>
+        <v>0.05309148470097472</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05180757409522659</v>
+        <v>0.06393130467148989</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01430914596691963</v>
+        <v>0.01449485416990533</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5610993039852354</v>
+        <v>0.5531470090279579</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2691241736410648</v>
+        <v>0.2816551067928056</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2755155566828807</v>
+        <v>0.2729934759488766</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.323263718202408</v>
+        <v>0.3551587634968988</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.5599205957491229</v>
+        <v>0.533907801865098</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4156349862154931</v>
+        <v>0.4474343791290983</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1341641605059482</v>
+        <v>0.1371003397424954</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3597508139776079</v>
+        <v>0.3548370048000185</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2939489325848565</v>
+        <v>0.2913876227897088</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2864201076696099</v>
+        <v>0.2723548545354066</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2039767364898498</v>
+        <v>0.1938129517619527</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.1152657135786444</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08453845344638916</v>
+        <v>0.08453845344638915</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0.04888243349403743</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.05798517270302368</v>
+        <v>0.05798517270302367</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0.07761985994034495</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0714578633734804</v>
+        <v>0.07145786337348035</v>
       </c>
     </row>
     <row r="8">
@@ -841,7 +841,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.02914808882350894</v>
+        <v>0.02921584855392298</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
       </c>
       <c r="K8" s="5" t="inlineStr"/>
       <c r="L8" s="5" t="n">
-        <v>0.01683064363525892</v>
+        <v>0.01586306036282853</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02440062818720708</v>
+        <v>0.02354335611326576</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0187940999793949</v>
+        <v>0.01790471730134217</v>
       </c>
     </row>
     <row r="9">
@@ -877,31 +877,31 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.3260078720489784</v>
+        <v>0.3330814022011423</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3484874893316929</v>
+        <v>0.3488478540424985</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.257823901940564</v>
+        <v>0.2733466562976173</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.2227750125590887</v>
+        <v>0.2220513494564255</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1936373658866792</v>
+        <v>0.1707214625269088</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="n">
-        <v>0.18013575476402</v>
+        <v>0.1853994519624686</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2202759699417219</v>
+        <v>0.1903308648580826</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1719547656423498</v>
+        <v>0.1731088767592416</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04288526770500322</v>
+        <v>0.04288526770500321</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5916735876963637</v>
@@ -960,16 +960,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.479373600897694</v>
+        <v>0.4766305184795808</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1405581522390248</v>
+        <v>0.1220424704959097</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1401721442106837</v>
+        <v>0.1444090389393667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1185280730597901</v>
+        <v>0.1223022763753803</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3998908907867765</v>
+        <v>0.4036989697659494</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1082274612623929</v>
+        <v>0.1101029154387074</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1036179489409575</v>
+        <v>0.1061071394138819</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09876602526574459</v>
+        <v>0.09805432061366291</v>
       </c>
     </row>
     <row r="12">
@@ -998,34 +998,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8468896304725638</v>
+        <v>0.8471180764438263</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3689912247969879</v>
+        <v>0.3543173705474068</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4862976606627103</v>
+        <v>0.4830468200380199</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4061694321988311</v>
+        <v>0.3951443682263786</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.2653018316561379</v>
+        <v>0.2124545125994206</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7673970261495644</v>
+        <v>0.7547744230363348</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2954651662458384</v>
+        <v>0.2873823479574186</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3728196647670164</v>
+        <v>0.3718486862696402</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.33096032896369</v>
+        <v>0.3188180437421518</v>
       </c>
     </row>
     <row r="13">
@@ -1084,40 +1084,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1994458457569396</v>
+        <v>0.1949905909155211</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1763315714062988</v>
+        <v>0.1832345503044849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08633866768819055</v>
+        <v>0.09974541316603194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.158051678115381</v>
+        <v>0.1530405822264516</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1227514605004971</v>
+        <v>0.1309638306350611</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0580015030062195</v>
+        <v>0.04643394140537136</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02560491392117724</v>
+        <v>0.04636967339155666</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05722728453062648</v>
+        <v>0.05874465993752406</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2036877621885272</v>
+        <v>0.222153894196982</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1523634951690767</v>
+        <v>0.1510844063224816</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0816706748492385</v>
+        <v>0.08268767742773639</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1378633706560535</v>
+        <v>0.1296084056194407</v>
       </c>
     </row>
     <row r="15">
@@ -1128,40 +1128,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4882809890189373</v>
+        <v>0.4924162474747356</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3467206183065306</v>
+        <v>0.3513749515738981</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2755265193647679</v>
+        <v>0.2901516014158711</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3683948800865345</v>
+        <v>0.3814051737690934</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4895411770021117</v>
+        <v>0.5097313222201858</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2654004685775172</v>
+        <v>0.2436451948652913</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2085875240127927</v>
+        <v>0.2345591299909622</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2647865875061555</v>
+        <v>0.2573987211052186</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4461529938061595</v>
+        <v>0.4504134873133031</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2850326913220078</v>
+        <v>0.2810819318745475</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2129275585507561</v>
+        <v>0.2234635904217853</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2893846535569945</v>
+        <v>0.2761364525753372</v>
       </c>
     </row>
     <row r="16">
@@ -1220,16 +1220,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08346527735871337</v>
+        <v>0.08530867430123504</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2605910117690491</v>
+        <v>0.2539496022598111</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07223020119961102</v>
+        <v>0.07313271901817192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2305424493135714</v>
+        <v>0.2249156201832548</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05155515909426517</v>
+        <v>0.05151910182573841</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06141880630418866</v>
+        <v>0.06234160524649695</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0581088925589331</v>
+        <v>0.05613475243112323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.119448009448919</v>
+        <v>0.1238359621665925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07533095749901274</v>
+        <v>0.0775906864631241</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1481388941731312</v>
+        <v>0.147020164364158</v>
       </c>
     </row>
     <row r="18">
@@ -1264,40 +1264,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6369124152051276</v>
+        <v>0.6494411691714199</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.586379620052943</v>
+        <v>0.592127838869952</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3148287439232733</v>
+        <v>0.3248715534281129</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.615781585631697</v>
+        <v>0.6212482718617065</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2702269361463627</v>
+        <v>0.3055875891264898</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1313700992892118</v>
+        <v>0.1314550895597131</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2965302288205752</v>
+        <v>0.2671790978944486</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1945371174413357</v>
+        <v>0.1931648651908179</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3309191001855038</v>
+        <v>0.3295266582892027</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2905497312682641</v>
+        <v>0.2864787135575676</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2408927962056511</v>
+        <v>0.2495226528270022</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3601333270218443</v>
+        <v>0.3520025310942014</v>
       </c>
     </row>
     <row r="19">
@@ -1385,13 +1385,13 @@
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.06784129190570687</v>
+        <v>0.05762158942935665</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="inlineStr"/>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="n">
-        <v>0.05710216624332412</v>
+        <v>0.0506116626642376</v>
       </c>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="inlineStr"/>
@@ -1452,40 +1452,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2402364221864298</v>
+        <v>0.2476106728237146</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1697446666138158</v>
+        <v>0.1703270719971355</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1009837460447371</v>
+        <v>0.1037346767917693</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1736213802812133</v>
+        <v>0.1737810011844478</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05327803248584367</v>
+        <v>0.05011854096064003</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.028392660922409</v>
+        <v>0.02638448427848218</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04266470319071783</v>
+        <v>0.0378881539605784</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04909151097657153</v>
+        <v>0.04572362203334852</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1770819509236852</v>
+        <v>0.1709042069907467</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1122796934474893</v>
+        <v>0.1106338499174912</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08375766558011472</v>
+        <v>0.08404559819152103</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1164029926757783</v>
+        <v>0.1140451044804603</v>
       </c>
     </row>
     <row r="24">
@@ -1496,40 +1496,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4101085750068439</v>
+        <v>0.4067455826345667</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2680569748954998</v>
+        <v>0.264364232308139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2073407684596927</v>
+        <v>0.2087899847800534</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3166409948547591</v>
+        <v>0.3114532688073715</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1807475109307728</v>
+        <v>0.1749567541905621</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.095152351366646</v>
+        <v>0.09086444810774015</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1185212447961957</v>
+        <v>0.1178279159451271</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1156314580762026</v>
+        <v>0.1119115880405868</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2935817212849052</v>
+        <v>0.2922562562077105</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1745055905008146</v>
+        <v>0.1727862370158598</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1459445614901437</v>
+        <v>0.1488528703542169</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1928300866964507</v>
+        <v>0.1901211992242398</v>
       </c>
     </row>
     <row r="25">
@@ -1802,10 +1802,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>946</v>
+        <v>1023</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>888</v>
+        <v>1036</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3048</v>
+        <v>2723</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2156</v>
+        <v>2660</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>745</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7">
@@ -1844,38 +1844,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7069</v>
+        <v>6969</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9140</v>
+        <v>9566</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5934</v>
+        <v>5879</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8362</v>
+        <v>9187</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>9703</v>
+        <v>9252</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8342</v>
+        <v>8980</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3513</v>
+        <v>3590</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7324</v>
+        <v>7224</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>15077</v>
+        <v>14946</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>11917</v>
+        <v>11332</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>10618</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="8">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
@@ -1997,13 +1997,13 @@
       </c>
       <c r="K10" s="6" t="inlineStr"/>
       <c r="L10" s="6" t="n">
-        <v>965</v>
+        <v>910</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>950</v>
+        <v>917</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>953</v>
+        <v>908</v>
       </c>
     </row>
     <row r="11">
@@ -2015,31 +2015,31 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>10271</v>
+        <v>10494</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5875</v>
+        <v>5882</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6634</v>
+        <v>7034</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>4920</v>
+        <v>4904</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>4838</v>
+        <v>4265</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="n">
-        <v>10328</v>
+        <v>10630</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>8579</v>
+        <v>7413</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>8721</v>
+        <v>8779</v>
       </c>
     </row>
     <row r="12">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13559</v>
+        <v>13481</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8405</v>
+        <v>7298</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4355</v>
+        <v>4486</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4286</v>
+        <v>4422</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -2160,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13293</v>
+        <v>13420</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8096</v>
+        <v>8237</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4254</v>
+        <v>4356</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4825</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="15">
@@ -2180,34 +2180,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23954</v>
+        <v>23961</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22065</v>
+        <v>21187</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15108</v>
+        <v>15007</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14687</v>
+        <v>14288</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>3366</v>
+        <v>2696</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>25510</v>
+        <v>25090</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22104</v>
+        <v>21499</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15305</v>
+        <v>15266</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16167</v>
+        <v>15574</v>
       </c>
     </row>
     <row r="16">
@@ -2310,40 +2310,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7783</v>
+        <v>7609</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16861</v>
+        <v>17521</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5093</v>
+        <v>5884</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12293</v>
+        <v>11903</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3070</v>
+        <v>3275</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2823</v>
+        <v>2260</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>985</v>
+        <v>1784</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3170</v>
+        <v>3254</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13043</v>
+        <v>14225</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>21986</v>
+        <v>21801</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>7959</v>
+        <v>8058</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>18360</v>
+        <v>17260</v>
       </c>
     </row>
     <row r="19">
@@ -2354,40 +2354,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19054</v>
+        <v>19216</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33153</v>
+        <v>33598</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16254</v>
+        <v>17117</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28654</v>
+        <v>29666</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12243</v>
+        <v>12748</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>12919</v>
+        <v>11860</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8023</v>
+        <v>9022</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14668</v>
+        <v>14258</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28568</v>
+        <v>28841</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>41130</v>
+        <v>40560</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>20751</v>
+        <v>21778</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>38539</v>
+        <v>36774</v>
       </c>
     </row>
     <row r="20">
@@ -2490,16 +2490,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1055</v>
+        <v>1078</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10232</v>
+        <v>9971</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2945</v>
+        <v>2982</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9296</v>
+        <v>9069</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2508,22 +2508,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3498</v>
+        <v>3551</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2039</v>
+        <v>1970</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>11645</v>
+        <v>12073</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6116</v>
+        <v>6299</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>14411</v>
+        <v>14302</v>
       </c>
     </row>
     <row r="23">
@@ -2534,40 +2534,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8051</v>
+        <v>8210</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23023</v>
+        <v>23249</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12838</v>
+        <v>13247</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24829</v>
+        <v>25049</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6066</v>
+        <v>6860</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7649</v>
+        <v>7654</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11983</v>
+        <v>10797</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>11081</v>
+        <v>11003</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11612</v>
+        <v>11563</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>28325</v>
+        <v>27929</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>19558</v>
+        <v>20258</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>35034</v>
+        <v>34243</v>
       </c>
     </row>
     <row r="24">
@@ -2699,13 +2699,13 @@
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>6128</v>
+        <v>5205</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="inlineStr"/>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="n">
-        <v>6690</v>
+        <v>5929</v>
       </c>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="inlineStr"/>
@@ -2810,40 +2810,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>29314</v>
+        <v>30213</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>48712</v>
+        <v>48879</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>19971</v>
+        <v>20516</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>37690</v>
+        <v>37725</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4998</v>
+        <v>4701</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>7252</v>
+        <v>6739</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>8168</v>
+        <v>7254</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>11066</v>
+        <v>10307</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>38219</v>
+        <v>36885</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>60898</v>
+        <v>60005</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>32600</v>
+        <v>32712</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>51507</v>
+        <v>50464</v>
       </c>
     </row>
     <row r="31">
@@ -2854,40 +2854,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>50041</v>
+        <v>49631</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>76925</v>
+        <v>75865</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>41006</v>
+        <v>41292</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>68737</v>
+        <v>67611</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16955</v>
+        <v>16412</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>24302</v>
+        <v>23207</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>22691</v>
+        <v>22559</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>26065</v>
+        <v>25226</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>63362</v>
+        <v>63076</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>94648</v>
+        <v>93715</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>56805</v>
+        <v>57937</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>85326</v>
+        <v>84127</v>
       </c>
     </row>
     <row r="32">
